--- a/biology/Botanique/Hemileccinum/Hemileccinum.xlsx
+++ b/biology/Botanique/Hemileccinum/Hemileccinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemileccinum est un genre de champignons de la famille des Boletaceae créé[2] en 2008 par Josef Šutara pour accueillir deux espèces partageant certains caractères morphologiques : H. depilatum et le type H. impolitum[3]. In 2014, Wu et al. l'on trouvé distinct des autres genres de bolets  à l'analyse moléculaire et très proche de Corneroboletus[4]. In 2015, H. subglabripes a été recombiné avec Hemileccinum contre Boletus,  en se basant sur l'ADN[5], tandis que des études complémentaires ont confirmé le caractère monophylétique du genre[6].
-Morphological Features of Xerocomoid Boletes[3],[7],[8],[9]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemileccinum est un genre de champignons de la famille des Boletaceae créé en 2008 par Josef Šutara pour accueillir deux espèces partageant certains caractères morphologiques : H. depilatum et le type H. impolitum. In 2014, Wu et al. l'on trouvé distinct des autres genres de bolets  à l'analyse moléculaire et très proche de Corneroboletus. In 2015, H. subglabripes a été recombiné avec Hemileccinum contre Boletus,  en se basant sur l'ADN, tandis que des études complémentaires ont confirmé le caractère monophylétique du genre.
+Morphological Features of Xerocomoid Boletes
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (12 mars 2020)[10] et MycoBank                                            (12 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (12 mars 2020) et MycoBank                                            (12 mars 2020) :
 Hemileccinum depilatum (Redeuilh) Šutara 2008
 Hemileccinum hortonii (A.H. Sm. &amp; Thiers) M. Kuo &amp; B. Ortiz 2020
 Hemileccinum impolitum (Fr.) Šutara 2008
